--- a/Admin/Justin/Time_Sheet_Week3.xlsx
+++ b/Admin/Justin/Time_Sheet_Week3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Classes\Captsone\SeniorDesignProject\Admin\Justin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11E52CBB-64F8-41B7-9D79-B0C4AC5F3F39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A12573-686C-4A8B-93B0-116EB2C33895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26475" yWindow="5685" windowWidth="23040" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,12 +197,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -215,6 +209,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -601,253 +601,259 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="8" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>44452</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>44453</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>44454</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>44455</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>44456</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>44457</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>44458</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1.25</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10">
         <f t="shared" ref="I6:I9" si="0">SUM(B6:H6)</f>
         <v>1.25</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <v>0.5</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
-        <f>SUM(B6:B9)</f>
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:I10" si="1">SUM(B6:B9)</f>
         <v>1.25</v>
       </c>
-      <c r="C10" s="12">
-        <f>SUM(C6:C9)</f>
+      <c r="C10" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
-        <f>SUM(D6:D9)</f>
+      <c r="D10" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E10" s="12">
-        <f>SUM(E6:E9)</f>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F10" s="12">
-        <f>SUM(F6:F9)</f>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
-        <f>SUM(G6:G9)</f>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
-        <f>SUM(H6:H9)</f>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="12">
-        <f>SUM(I6:I9)</f>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J11" s="8"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
     </row>
